--- a/dataset/dataset_enso.xlsx
+++ b/dataset/dataset_enso.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024_BOPTN_Hopsot\source-code\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50735151-047A-4265-A7C5-5F0C84AC2F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54348D02-5AF0-4FF6-AD62-15F47F80926B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SST" sheetId="1" r:id="rId1"/>
@@ -1714,11 +1714,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1">
@@ -10668,12 +10668,12 @@
   </sheetPr>
   <dimension ref="A1:C277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1">
@@ -13737,11 +13737,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5546875" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1">
@@ -17634,12 +17634,12 @@
   </sheetPr>
   <dimension ref="A1:C277"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1">
@@ -20703,15 +20703,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="27" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="27" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.75" customHeight="1">
@@ -23124,10 +23124,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1">
